--- a/PE 33-2023.xlsx
+++ b/PE 33-2023.xlsx
@@ -295,7 +295,7 @@
     <t>VINTEK IND., COMERCIO E SERVICOS LTDA</t>
   </si>
   <si>
-    <t>791010.0/2023-016/00</t>
+    <t>791010.0/2023-059/00</t>
   </si>
 </sst>
 </file>
